--- a/biology/Médecine/Hôpital_Arrazi/Hôpital_Arrazi.xlsx
+++ b/biology/Médecine/Hôpital_Arrazi/Hôpital_Arrazi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Arrazi</t>
+          <t>Hôpital_Arrazi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital Arrazi, parfois appelé abusivement CHU Mohammed VI, est le plus grand centre hospitalier de Marrakech, avec une capacité de 587 lits. C'est aussi l'hôpital le plus moderne et le mieux équipé de la ville. Il a été progressivement inauguré entre 2008 et 2010 et fait partie du CHU Mohammed VI. Il s'agit d'un pôle multi-spécialités, doté d'un service d'urgences.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Arrazi</t>
+          <t>Hôpital_Arrazi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Spécialités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 2020, les spécialités réunies à l'hôpital Arrazi sont les suivantes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 2020, les spécialités réunies à l'hôpital Arrazi sont les suivantes :
 Anatomo-pathologie
 Cardiologie
 CCV
